--- a/procesar_documentos/platilla_variabes.xlsx
+++ b/procesar_documentos/platilla_variabes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="47">
   <si>
     <t>']),</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve"> =&gt; </t>
+  </si>
+  <si>
+    <t>Fac_Enc_PrefijoF</t>
   </si>
 </sst>
 </file>
@@ -189,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F45"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F2:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -509,15 +513,15 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("'",D2,"'",E2,A2,B2,C2)</f>
-        <v>'Fac_Enca_Numero' =&gt;  trim($linea['0']),</v>
+        <v>'Fac_Enc_PrefijoF' =&gt;  trim($linea['0']),</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -531,14 +535,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F45" si="0">CONCATENATE("'",D3,"'",E3,A3,B3,C3)</f>
-        <v>'Fac_Enca_Fecha' =&gt;  trim($linea['1']),</v>
+        <f>CONCATENATE("'",D3,"'",E3,A3,B3,C3)</f>
+        <v>'Fac_Enca_Numero' =&gt;  trim($linea['1']),</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -552,14 +556,14 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>'Fac_Enca_Vencimiento' =&gt;  trim($linea['2']),</v>
+        <f t="shared" ref="F4:F46" si="0">CONCATENATE("'",D4,"'",E4,A4,B4,C4)</f>
+        <v>'Fac_Enca_Fecha' =&gt;  trim($linea['2']),</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -573,14 +577,14 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Condicion' =&gt;  trim($linea['3']),</v>
+        <v>'Fac_Enca_Vencimiento' =&gt;  trim($linea['3']),</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -594,14 +598,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Vendedor' =&gt;  trim($linea['4']),</v>
+        <v>'Fac_Enca_Condicion' =&gt;  trim($linea['4']),</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -615,14 +619,14 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_Codigo_Tercero' =&gt;  trim($linea['5']),</v>
+        <v>'Fac_Enca_Vendedor' =&gt;  trim($linea['5']),</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -636,14 +640,14 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_Nombre_Tercero' =&gt;  trim($linea['6']),</v>
+        <v>'Fac_Enca_Tercero_Codigo_Tercero' =&gt;  trim($linea['6']),</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -657,14 +661,14 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_Telefono' =&gt;  trim($linea['7']),</v>
+        <v>'Fac_Enca_Tercero_Nombre_Tercero' =&gt;  trim($linea['7']),</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -678,14 +682,14 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_email' =&gt;  trim($linea['8']),</v>
+        <v>'Fac_Enca_Tercero_Telefono' =&gt;  trim($linea['8']),</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -699,14 +703,14 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_Direccion' =&gt;  trim($linea['9']),</v>
+        <v>'Fac_Enca_Tercero_email' =&gt;  trim($linea['9']),</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -720,14 +724,14 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>45</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Direccion2' =&gt;  trim($linea['10']),</v>
+        <v>'Fac_Enca_Tercero_Direccion' =&gt;  trim($linea['10']),</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -741,14 +745,14 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_Ciudad' =&gt;  trim($linea['11']),</v>
+        <v>'Fac_Enca_Direccion2' =&gt;  trim($linea['11']),</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -762,14 +766,14 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_Pais' =&gt;  trim($linea['12']),</v>
+        <v>'Fac_Enca_Tercero_Ciudad' =&gt;  trim($linea['12']),</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -783,14 +787,14 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tercero_Identificacion' =&gt;  trim($linea['13']),</v>
+        <v>'Fac_Enca_Tercero_Pais' =&gt;  trim($linea['13']),</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -804,14 +808,14 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Emp_Codigo_Tercero' =&gt;  trim($linea['14']),</v>
+        <v>'Fac_Enca_Tercero_Identificacion' =&gt;  trim($linea['14']),</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -825,14 +829,14 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Emp_Nombre_Tercero' =&gt;  trim($linea['15']),</v>
+        <v>'Fac_Enca_Emp_Codigo_Tercero' =&gt;  trim($linea['15']),</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -846,14 +850,14 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Emp_Telefono' =&gt;  trim($linea['16']),</v>
+        <v>'Fac_Enca_Emp_Nombre_Tercero' =&gt;  trim($linea['16']),</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -867,14 +871,14 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Emp_Direccion' =&gt;  trim($linea['17']),</v>
+        <v>'Fac_Enca_Emp_Telefono' =&gt;  trim($linea['17']),</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -888,14 +892,14 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Emp_Identificacion' =&gt;  trim($linea['18']),</v>
+        <v>'Fac_Enca_Emp_Direccion' =&gt;  trim($linea['18']),</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -909,14 +913,14 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Resolucion' =&gt;  trim($linea['19']),</v>
+        <v>'Fac_Enca_Emp_Identificacion' =&gt;  trim($linea['19']),</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -930,14 +934,14 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Elaborado' =&gt;  trim($linea['20']),</v>
+        <v>'Fac_Enca_Resolucion' =&gt;  trim($linea['20']),</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -951,14 +955,14 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Pedido' =&gt;  trim($linea['21']),</v>
+        <v>'Fac_Enca_Elaborado' =&gt;  trim($linea['21']),</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -972,14 +976,14 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tipo_ID' =&gt;  trim($linea['22']),</v>
+        <v>'Fac_Enca_Pedido' =&gt;  trim($linea['22']),</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -993,14 +997,14 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Tipo_Persona' =&gt;  trim($linea['23']),</v>
+        <v>'Fac_Enca_Tipo_ID' =&gt;  trim($linea['23']),</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1014,14 +1018,14 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Hora' =&gt;  trim($linea['24']),</v>
+        <v>'Fac_Enca_Tipo_Persona' =&gt;  trim($linea['24']),</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1035,14 +1039,14 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>45</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Clave_Tecnica' =&gt;  trim($linea['25']),</v>
+        <v>'Fac_Enca_Hora' =&gt;  trim($linea['25']),</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1056,14 +1060,14 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>'Produ_Codigo_Producto' =&gt;  trim($linea['26']),</v>
+        <v>'Fac_Enca_Clave_Tecnica' =&gt;  trim($linea['26']),</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1077,14 +1081,14 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>'Produ_Nombre_Producto' =&gt;  trim($linea['27']),</v>
+        <v>'Produ_Codigo_Producto' =&gt;  trim($linea['27']),</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1098,14 +1102,14 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
         <v>45</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>'Produ_Presentacion' =&gt;  trim($linea['28']),</v>
+        <v>'Produ_Nombre_Producto' =&gt;  trim($linea['28']),</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1119,14 +1123,14 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>45</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>'Produ_PorcentajeIVA' =&gt;  trim($linea['29']),</v>
+        <v>'Produ_Presentacion' =&gt;  trim($linea['29']),</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1140,14 +1144,14 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
         <v>45</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>'Produ_Precio_Unitario' =&gt;  trim($linea['30']),</v>
+        <v>'Produ_PorcentajeIVA' =&gt;  trim($linea['30']),</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1161,14 +1165,14 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>45</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>'Cantidad' =&gt;  trim($linea['31']),</v>
+        <v>'Produ_Precio_Unitario' =&gt;  trim($linea['31']),</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,14 +1186,14 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>'Dscto1' =&gt;  trim($linea['32']),</v>
+        <v>'Cantidad' =&gt;  trim($linea['32']),</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1203,14 +1207,14 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>45</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>'Dscto2' =&gt;  trim($linea['33']),</v>
+        <v>'Dscto1' =&gt;  trim($linea['33']),</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1224,14 +1228,14 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>45</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>'Parcial' =&gt;  trim($linea['34']),</v>
+        <v>'Dscto2' =&gt;  trim($linea['34']),</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1245,14 +1249,14 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
         <v>45</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Totales_Gravado_19' =&gt;  trim($linea['35']),</v>
+        <v>'Parcial' =&gt;  trim($linea['35']),</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1266,14 +1270,14 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
         <v>45</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Totales_Gravado_5' =&gt;  trim($linea['36']),</v>
+        <v>'Fac_Totales_Gravado_19' =&gt;  trim($linea['36']),</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1287,14 +1291,14 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
         <v>45</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Totales_Exento' =&gt;  trim($linea['37']),</v>
+        <v>'Fac_Totales_Gravado_5' =&gt;  trim($linea['37']),</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1308,14 +1312,14 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Totales_Antes_Impuestos' =&gt;  trim($linea['38']),</v>
+        <v>'Fac_Totales_Exento' =&gt;  trim($linea['38']),</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1329,14 +1333,14 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
         <v>45</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Totales_IVA_19' =&gt;  trim($linea['39']),</v>
+        <v>'Fac_Totales_Antes_Impuestos' =&gt;  trim($linea['39']),</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1350,14 +1354,14 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Totales_IVA_5' =&gt;  trim($linea['40']),</v>
+        <v>'Fac_Totales_IVA_19' =&gt;  trim($linea['40']),</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1371,14 +1375,14 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
         <v>45</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Totales_Valor_Total' =&gt;  trim($linea['41']),</v>
+        <v>'Fac_Totales_IVA_5' =&gt;  trim($linea['41']),</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1392,14 +1396,14 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>'Fac_Enca_Observaciones' =&gt;  trim($linea['42']),</v>
+        <v>'Fac_Totales_Valor_Total' =&gt;  trim($linea['42']),</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1413,18 +1417,40 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fac_Enca_Observaciones' =&gt;  trim($linea['43']),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>28</v>
       </c>
-      <c r="E45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>'Fac_Enca_Emp_Codigo_Tercero' =&gt;  trim($linea['43']),</v>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fac_Enca_Emp_Codigo_Tercero' =&gt;  trim($linea['44']),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
